--- a/Data/stomatal density data.xlsx
+++ b/Data/stomatal density data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonplunkert/Documents/GitHub/Leaf-surface-traits-2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463291C-8469-1142-9BF6-0E1CEA83A005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08967E73-198A-E449-9360-D542A5EB2383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1012">
   <si>
     <t>Notes</t>
   </si>
@@ -3057,13 +3058,28 @@
   </si>
   <si>
     <t>file_name</t>
+  </si>
+  <si>
+    <t>scored by</t>
+  </si>
+  <si>
+    <t>Image file name indicating the population code, replicate number, leaf side (adaxial or abaxial), and view replicate (three microscope fields of view were taken for some peels)</t>
+  </si>
+  <si>
+    <t>person who scored the image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of stomata manually counted in an image corresponding to 0.9437 mm^2 </t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3082,6 +3098,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3104,13 +3127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3331,9 +3355,9 @@
   </sheetPr>
   <dimension ref="A1:I882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10808,4 +10832,58 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FFA5D-A07D-3646-94FB-518369BC4FCF}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>